--- a/biology/Zoologie/Bagaraatan/Bagaraatan.xlsx
+++ b/biology/Zoologie/Bagaraatan/Bagaraatan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bagaraatan (qui signifie « petit chasseur » en mongol) est un genre de dinosaures théropodes du Crétacé supérieur. Ses fossiles ont été trouvés dans la Formation de Nemegt en Mongolie. La taille de Bagaraatan est estimée à environ 3 à 4 mètres de long.
-L'espèce type, Bagaraatan ostromi, a été décrite par Halszka Osmólska en 1996. Le squelette post-crânien (ZPAL MgD-I/108) ressemble à celui d'un oiseau, tandis que le crâne présente des caractéristiques de plusieurs groupes différents de théropodes[1].
+L'espèce type, Bagaraatan ostromi, a été décrite par Halszka Osmólska en 1996. Le squelette post-crânien (ZPAL MgD-I/108) ressemble à celui d'un oiseau, tandis que le crâne présente des caractéristiques de plusieurs groupes différents de théropodes.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Thomas Holtz a classé Bagaraatan comme un genre basal de la super-famille des Tyrannosauroidea, tandis que Rodolfo Coria l'a identifié comme un troodontidé, et Oliver Rauhut l'a placé dans le groupe Maniraptora. Mark Loewen et ses collègues ont classé Bagaraatan parmi les Tyrannosauroidea basaux, en accord avec l'analyse de Holtz. Le cladogramme suivant est issu de l'analyse phylogénétique de Loewen et ses collègues[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Thomas Holtz a classé Bagaraatan comme un genre basal de la super-famille des Tyrannosauroidea, tandis que Rodolfo Coria l'a identifié comme un troodontidé, et Oliver Rauhut l'a placé dans le groupe Maniraptora. Mark Loewen et ses collègues ont classé Bagaraatan parmi les Tyrannosauroidea basaux, en accord avec l'analyse de Holtz. Le cladogramme suivant est issu de l'analyse phylogénétique de Loewen et ses collègues.
 </t>
         </is>
       </c>
